--- a/data/trans_camb/P44-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P44-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 12,48</t>
+          <t>-6,29; 12,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,49; 44,91</t>
+          <t>27,96; 45,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,1; -1,6</t>
+          <t>-27,69; -0,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 30,59</t>
+          <t>3,86; 30,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 5,11</t>
+          <t>-10,1; 5,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,68; 37,48</t>
+          <t>22,77; 37,1</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 136,29</t>
+          <t>-33,99; 132,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>122,29; 506,55</t>
+          <t>126,81; 502,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,15; -4,86</t>
+          <t>-83,94; 3,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 235,72</t>
+          <t>8,34; 210,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 41,79</t>
+          <t>-47,63; 47,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,43; 319,56</t>
+          <t>98,41; 323,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 16,35</t>
+          <t>-0,59; 17,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 34,26</t>
+          <t>17,98; 34,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 1,8</t>
+          <t>-16,66; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 32,59</t>
+          <t>11,37; 32,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 8,3</t>
+          <t>-4,93; 7,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 31,53</t>
+          <t>18,61; 30,99</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 237,47</t>
+          <t>-5,13; 250,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104,12; 478,18</t>
+          <t>105,63; 463,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,89; 54,37</t>
+          <t>-88,3; 77,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,85; 615,41</t>
+          <t>53,0; 627,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 102,94</t>
+          <t>-33,61; 93,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>110,23; 411,19</t>
+          <t>114,0; 394,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,9</t>
+          <t>-6,79; 5,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,17; 82,58</t>
+          <t>25,67; 81,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 8,02</t>
+          <t>-8,39; 9,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,6; 31,88</t>
+          <t>13,8; 32,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,85</t>
+          <t>-5,54; 4,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,32; 79,78</t>
+          <t>25,33; 78,23</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 73,33</t>
+          <t>-43,83; 71,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>219,57; 1486,71</t>
+          <t>217,21; 1214,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,46; 171,13</t>
+          <t>-65,04; 182,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,74; 665,83</t>
+          <t>80,65; 625,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,26; 58,42</t>
+          <t>-41,83; 58,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>209,86; 1145,07</t>
+          <t>223,18; 1192,64</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,01</t>
+          <t>-2,25; 5,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 27,91</t>
+          <t>18,9; 28,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 7,26</t>
+          <t>-3,81; 7,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 22,6</t>
+          <t>-5,68; 22,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,52</t>
+          <t>-1,49; 4,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 23,63</t>
+          <t>2,98; 23,68</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 76,46</t>
+          <t>-23,98; 82,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175,33; 450,74</t>
+          <t>168,47; 431,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 156,17</t>
+          <t>-36,05; 143,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 328,08</t>
+          <t>-44,05; 345,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 66,02</t>
+          <t>-15,19; 65,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,24; 324,58</t>
+          <t>38,23; 319,29</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,06</t>
+          <t>-0,75; 8,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,51; 30,01</t>
+          <t>18,34; 30,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 4,17</t>
+          <t>-3,99; 3,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,99; 22,81</t>
+          <t>14,01; 22,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,44</t>
+          <t>-1,53; 4,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 24,12</t>
+          <t>16,51; 23,74</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 301,54</t>
+          <t>-11,43; 336,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>205,22; 1081,6</t>
+          <t>228,47; 1304,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 73,03</t>
+          <t>-40,3; 69,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>131,3; 452,78</t>
+          <t>138,9; 428,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 87,15</t>
+          <t>-18,9; 91,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>197,93; 497,81</t>
+          <t>183,4; 492,47</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>12,27; 64,86</t>
+          <t>13,75; 58,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,71</t>
+          <t>-1,72; 3,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,16</t>
+          <t>18,57; 25,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,53</t>
+          <t>-1,55; 3,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,8; 25,91</t>
+          <t>18,7; 25,78</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 90,24</t>
+          <t>-28,47; 100,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>290,07; 680,73</t>
+          <t>276,9; 695,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 96,8</t>
+          <t>-27,29; 86,22</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>281,62; 666,27</t>
+          <t>280,05; 659,08</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,79</t>
+          <t>-0,25; 4,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>26,37; 55,82</t>
+          <t>26,2; 57,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,23</t>
+          <t>-2,3; 1,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,37; 23,31</t>
+          <t>8,65; 23,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,72</t>
+          <t>-0,53; 2,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,09; 40,95</t>
+          <t>21,24; 42,71</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 57,9</t>
+          <t>-2,43; 58,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>258,78; 629,66</t>
+          <t>257,64; 666,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 35,3</t>
+          <t>-26,5; 29,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>129,28; 350,13</t>
+          <t>135,95; 348,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 35,91</t>
+          <t>-6,08; 34,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>243,72; 517,16</t>
+          <t>244,06; 535,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P44-Clase-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
